--- a/individual_case_outputs/avey/416.xlsx
+++ b/individual_case_outputs/avey/416.xlsx
@@ -560,7 +560,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>haemophilia</t>
+          <t>ankle sprain with  hematoma</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -715,7 +715,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>vasculitis</t>
+          <t>septic arthritis</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
